--- a/Projects/CCRU_SAND/Data/KPIs_2018/Contract Execution 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/Contract Execution 2018.xlsx
@@ -731,27 +731,27 @@
   </sheetPr>
   <dimension ref="A1:AK24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z15" activeCellId="0" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="4" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="4" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="24.8502024291498"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="67" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1660,8 +1660,9 @@
       <c r="S15" s="4"/>
       <c r="U15" s="4"/>
       <c r="Z15" s="3" t="n">
-        <v>0.355</v>
-      </c>
+        <v>0.29</v>
+      </c>
+      <c r="AA15" s="3"/>
       <c r="AB15" s="13" t="s">
         <v>46</v>
       </c>
@@ -1886,7 +1887,7 @@
       </c>
       <c r="S19" s="4"/>
       <c r="Z19" s="3" t="n">
-        <v>0.29</v>
+        <v>0.355</v>
       </c>
       <c r="AB19" s="13" t="s">
         <v>46</v>
@@ -2215,26 +2216,26 @@
   </sheetPr>
   <dimension ref="A1:AF65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="25" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="25" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="18.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="64" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3548,26 +3549,26 @@
   </sheetPr>
   <dimension ref="A1:AF65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="25" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="25" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="20.995951417004"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="64" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3706,27 +3707,27 @@
   </sheetPr>
   <dimension ref="A1:AK65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z15" activeCellId="0" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="0" width="9.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="0" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="21.8542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4637,7 +4638,7 @@
       <c r="S15" s="0"/>
       <c r="U15" s="0"/>
       <c r="Z15" s="3" t="n">
-        <v>0.355</v>
+        <v>0.29</v>
       </c>
       <c r="AB15" s="13" t="s">
         <v>46</v>
@@ -4696,7 +4697,7 @@
       <c r="U16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Z16" s="3"/>
+      <c r="Z16" s="15"/>
       <c r="AB16" s="13" t="s">
         <v>37</v>
       </c>
@@ -4756,7 +4757,7 @@
       <c r="U17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Z17" s="3"/>
+      <c r="Z17" s="15"/>
       <c r="AB17" s="13" t="s">
         <v>37</v>
       </c>
@@ -4815,7 +4816,7 @@
       <c r="S18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Z18" s="3"/>
+      <c r="Z18" s="15"/>
       <c r="AB18" s="13" t="s">
         <v>79</v>
       </c>
@@ -4863,7 +4864,7 @@
       <c r="O19" s="0"/>
       <c r="S19" s="0"/>
       <c r="Z19" s="3" t="n">
-        <v>0.29</v>
+        <v>0.355</v>
       </c>
       <c r="AB19" s="13" t="s">
         <v>46</v>
@@ -5195,24 +5196,24 @@
   </sheetPr>
   <dimension ref="A1:AJ65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE18" activeCellId="0" sqref="AE18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z15" activeCellId="0" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="24.2793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.2793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.2793522267206"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="24.2793522267206"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="24.2793522267206"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="24.2793522267206"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="24.2793522267206"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="24.2793522267206"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="24.2793522267206"/>
-    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="24.5303643724696"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="59" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6141,7 +6142,7 @@
       <c r="S15" s="0"/>
       <c r="U15" s="0"/>
       <c r="Z15" s="3" t="n">
-        <v>0.355</v>
+        <v>0.29</v>
       </c>
       <c r="AB15" s="13" t="s">
         <v>46</v>
@@ -6202,7 +6203,7 @@
       <c r="U16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Z16" s="3"/>
+      <c r="Z16" s="15"/>
       <c r="AB16" s="13" t="s">
         <v>37</v>
       </c>
@@ -6264,7 +6265,7 @@
       <c r="U17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Z17" s="3"/>
+      <c r="Z17" s="15"/>
       <c r="AB17" s="13" t="s">
         <v>37</v>
       </c>
@@ -6325,7 +6326,7 @@
       <c r="S18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Z18" s="3"/>
+      <c r="Z18" s="15"/>
       <c r="AB18" s="13" t="s">
         <v>79</v>
       </c>
@@ -6375,7 +6376,7 @@
       <c r="O19" s="0"/>
       <c r="S19" s="0"/>
       <c r="Z19" s="3" t="n">
-        <v>0.29</v>
+        <v>0.355</v>
       </c>
       <c r="AB19" s="13" t="s">
         <v>46</v>
@@ -6719,29 +6720,28 @@
   </sheetPr>
   <dimension ref="1:24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z15" activeCellId="0" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="22.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.8502024291498"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="22.8502024291498"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.8502024291498"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="22.8502024291498"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="22.8502024291498"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="22.8502024291498"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="22.8502024291498"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="22.8502024291498"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="22.8502024291498"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="22.8502024291498"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1023" min="38" style="1" width="22.8502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="22.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1023" min="38" style="1" width="23.0323886639676"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7653,7 +7653,7 @@
       <c r="S15" s="0"/>
       <c r="U15" s="0"/>
       <c r="Z15" s="3" t="n">
-        <v>0.355</v>
+        <v>0.29</v>
       </c>
       <c r="AB15" s="13" t="s">
         <v>46</v>
@@ -7712,7 +7712,7 @@
       <c r="U16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Z16" s="3"/>
+      <c r="Z16" s="15"/>
       <c r="AB16" s="13" t="s">
         <v>37</v>
       </c>
@@ -7772,7 +7772,7 @@
       <c r="U17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Z17" s="3"/>
+      <c r="Z17" s="15"/>
       <c r="AB17" s="13" t="s">
         <v>37</v>
       </c>
@@ -7831,7 +7831,7 @@
       <c r="S18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Z18" s="3"/>
+      <c r="Z18" s="15"/>
       <c r="AB18" s="13" t="s">
         <v>79</v>
       </c>
@@ -7879,7 +7879,7 @@
       <c r="O19" s="0"/>
       <c r="S19" s="0"/>
       <c r="Z19" s="3" t="n">
-        <v>0.29</v>
+        <v>0.355</v>
       </c>
       <c r="AB19" s="13" t="s">
         <v>46</v>
@@ -8210,26 +8210,26 @@
   </sheetPr>
   <dimension ref="A1:AK65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q21" activeCellId="0" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="22.8178137651822"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="64" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9548,26 +9548,26 @@
   </sheetPr>
   <dimension ref="A1:AK65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="25.8137651821862"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="80" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10886,27 +10886,27 @@
   </sheetPr>
   <dimension ref="A1:AK26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="2" width="13.9959514170041"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="23.2793522267206"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="32.2793522267206"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="23.2793522267206"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="23.2793522267206"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="23.2793522267206"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.2793522267206"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="23.2793522267206"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="23.2793522267206"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="23.2793522267206"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="23.2793522267206"/>
-    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="23.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="2" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="23.4574898785425"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12406,28 +12406,28 @@
   </sheetPr>
   <dimension ref="A1:AK65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="29.4210526315789"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.4210526315789"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="29.4210526315789"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="29.4210526315789"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.4210526315789"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="29.4210526315789"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="29.4210526315789"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="29.4210526315789"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="29.4210526315789"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="29.4210526315789"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="29.4210526315789"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="29.4210526315789"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="29.4210526315789"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="29.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="29.6720647773279"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13748,26 +13748,26 @@
   </sheetPr>
   <dimension ref="A1:AK65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="22.8178137651822"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="70" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPIs_2018/Contract Execution 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/Contract Execution 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="visible" r:id="rId2"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="120">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -75,7 +75,7 @@
     <t xml:space="preserve">Children</t>
   </si>
   <si>
-    <t xml:space="preserve">Parent </t>
+    <t xml:space="preserve">Parent</t>
   </si>
   <si>
     <t xml:space="preserve">KPI name Eng</t>
@@ -144,9 +144,6 @@
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
-    <t xml:space="preserve">Equipment</t>
-  </si>
-  <si>
     <t xml:space="preserve">HM</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t xml:space="preserve">Equipment Execution score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipment</t>
   </si>
   <si>
     <t xml:space="preserve">2,3,4,5,6,7,8,9,10,11</t>
@@ -584,7 +584,7 @@
     <tableColumn id="4" name="KPI from POS"/>
     <tableColumn id="5" name="level"/>
     <tableColumn id="6" name="Children"/>
-    <tableColumn id="7" name="Parent "/>
+    <tableColumn id="7" name="Parent"/>
     <tableColumn id="8" name="KPI name Eng"/>
     <tableColumn id="9" name="Formula"/>
     <tableColumn id="10" name="Target"/>
@@ -618,16 +618,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:3"/>
+  <dimension ref="1:1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.95"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
@@ -637,18 +637,18 @@
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="7.17813765182186"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="5.24696356275304"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="11.1417004048583"/>
@@ -658,7 +658,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="40.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -749,14 +749,6 @@
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="18.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="18.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -783,34 +775,34 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.3805668016194"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
     <col collapsed="false" hidden="false" max="34" min="30" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1021" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
@@ -918,10 +910,10 @@
         <v>118</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>0</v>
@@ -932,27 +924,27 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="J2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X2" s="7" t="n">
         <v>0.4</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
@@ -963,10 +955,10 @@
         <v>118</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>0</v>
@@ -977,27 +969,27 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="J3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X3" s="7" t="n">
         <v>0.6</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
@@ -1008,7 +1000,7 @@
         <v>118</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -1051,7 +1043,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1059,7 +1051,7 @@
         <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2</v>
@@ -1107,14 +1099,14 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA5" s="4"/>
       <c r="AB5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1122,7 +1114,7 @@
         <v>118</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3</v>
@@ -1170,14 +1162,14 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA6" s="4"/>
       <c r="AB6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1185,7 +1177,7 @@
         <v>118</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>4</v>
@@ -1240,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1248,7 +1240,7 @@
         <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>
@@ -1291,7 +1283,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1299,7 +1291,7 @@
         <v>118</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>6</v>
@@ -1348,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1356,7 +1348,7 @@
         <v>118</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>7</v>
@@ -1405,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1413,7 +1405,7 @@
         <v>118</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>8</v>
@@ -1462,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1470,7 +1462,7 @@
         <v>118</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>9</v>
@@ -1519,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1527,7 +1519,7 @@
         <v>118</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>10</v>
@@ -1576,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1584,7 +1576,7 @@
         <v>118</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>11</v>
@@ -1633,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1641,7 +1633,7 @@
         <v>118</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>12</v>
@@ -1690,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1698,7 +1690,7 @@
         <v>118</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>13</v>
@@ -1747,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1755,7 +1747,7 @@
         <v>118</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>14</v>
@@ -1804,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1812,7 +1804,7 @@
         <v>118</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>15</v>
@@ -1861,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1869,7 +1861,7 @@
         <v>118</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>16</v>
@@ -1918,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1926,7 +1918,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>17</v>
@@ -1975,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2003,34 +1995,34 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.3805668016194"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
     <col collapsed="false" hidden="false" max="1021" min="30" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
   </cols>
@@ -2132,10 +2124,10 @@
         <v>119</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>0</v>
@@ -2146,27 +2138,27 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="J2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X2" s="7" t="n">
         <v>0.4</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
@@ -2177,10 +2169,10 @@
         <v>119</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>0</v>
@@ -2191,27 +2183,27 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="J3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X3" s="7" t="n">
         <v>0.6</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
@@ -2222,7 +2214,7 @@
         <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -2265,7 +2257,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2273,7 +2265,7 @@
         <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2</v>
@@ -2321,14 +2313,14 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA5" s="4"/>
       <c r="AB5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2336,7 +2328,7 @@
         <v>119</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3</v>
@@ -2384,14 +2376,14 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA6" s="4"/>
       <c r="AB6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2399,7 +2391,7 @@
         <v>119</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>4</v>
@@ -2454,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2462,7 +2454,7 @@
         <v>119</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>
@@ -2505,7 +2497,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2513,7 +2505,7 @@
         <v>119</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>6</v>
@@ -2562,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2570,7 +2562,7 @@
         <v>119</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>7</v>
@@ -2619,7 +2611,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2627,7 +2619,7 @@
         <v>119</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>8</v>
@@ -2676,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2684,7 +2676,7 @@
         <v>119</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>9</v>
@@ -2733,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2741,7 +2733,7 @@
         <v>119</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>10</v>
@@ -2790,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2798,7 +2790,7 @@
         <v>119</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>11</v>
@@ -2847,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2855,7 +2847,7 @@
         <v>119</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>12</v>
@@ -2904,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2912,7 +2904,7 @@
         <v>119</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>13</v>
@@ -2961,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2969,7 +2961,7 @@
         <v>119</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>14</v>
@@ -3018,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3026,7 +3018,7 @@
         <v>119</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>15</v>
@@ -3075,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3083,7 +3075,7 @@
         <v>119</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>16</v>
@@ -3132,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3140,7 +3132,7 @@
         <v>119</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>17</v>
@@ -3189,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3210,41 +3202,41 @@
   </sheetPr>
   <dimension ref="1:24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
     <col collapsed="false" hidden="false" max="34" min="30" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1021" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
@@ -3349,13 +3341,13 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>0</v>
@@ -3366,27 +3358,27 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="J2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X2" s="7" t="n">
         <v>0.35</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
@@ -3394,13 +3386,13 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>0</v>
@@ -3411,27 +3403,27 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="J3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X3" s="7" t="n">
         <v>0.65</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
@@ -3439,10 +3431,10 @@
     </row>
     <row r="4" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -3487,15 +3479,15 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2</v>
@@ -3536,21 +3528,21 @@
       <c r="V5" s="4"/>
       <c r="X5" s="9"/>
       <c r="Z5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3</v>
@@ -3591,21 +3583,21 @@
       <c r="V6" s="4"/>
       <c r="X6" s="9"/>
       <c r="Z6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>4</v>
@@ -3646,21 +3638,21 @@
       <c r="V7" s="4"/>
       <c r="X7" s="9"/>
       <c r="Z7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>
@@ -3701,21 +3693,21 @@
       <c r="V8" s="4"/>
       <c r="X8" s="9"/>
       <c r="Z8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>6</v>
@@ -3756,21 +3748,21 @@
       <c r="V9" s="4"/>
       <c r="X9" s="9"/>
       <c r="Z9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>7</v>
@@ -3811,21 +3803,21 @@
       </c>
       <c r="X10" s="9"/>
       <c r="Z10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>8</v>
@@ -3866,21 +3858,21 @@
       </c>
       <c r="X11" s="9"/>
       <c r="Z11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>9</v>
@@ -3921,21 +3913,21 @@
       </c>
       <c r="X12" s="9"/>
       <c r="Z12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>10</v>
@@ -3976,21 +3968,21 @@
       </c>
       <c r="X13" s="9"/>
       <c r="Z13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>11</v>
@@ -4031,21 +4023,21 @@
       </c>
       <c r="X14" s="9"/>
       <c r="Z14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>12</v>
@@ -4081,15 +4073,15 @@
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>13</v>
@@ -4129,21 +4121,21 @@
       </c>
       <c r="X16" s="4"/>
       <c r="Z16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>14</v>
@@ -4183,21 +4175,21 @@
       </c>
       <c r="X17" s="4"/>
       <c r="Z17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>15</v>
@@ -4242,15 +4234,15 @@
         <v>1</v>
       </c>
       <c r="AC18" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>16</v>
@@ -4285,15 +4277,15 @@
       </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>17</v>
@@ -4330,21 +4322,21 @@
       </c>
       <c r="X20" s="9"/>
       <c r="Z20" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>18</v>
@@ -4381,21 +4373,21 @@
       </c>
       <c r="X21" s="9"/>
       <c r="Z21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>19</v>
@@ -4432,21 +4424,21 @@
       </c>
       <c r="X22" s="9"/>
       <c r="Z22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>20</v>
@@ -4483,21 +4475,21 @@
       </c>
       <c r="X23" s="9"/>
       <c r="Z23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>21</v>
@@ -4534,13 +4526,13 @@
       </c>
       <c r="X24" s="9"/>
       <c r="Z24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC24" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4565,42 +4557,42 @@
   <dimension ref="1:25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
     <col collapsed="false" hidden="false" max="33" min="30" style="4" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="2.03643724696356"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="1.92712550607287"/>
     <col collapsed="false" hidden="false" max="1021" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
   </cols>
@@ -4709,10 +4701,10 @@
         <v>93</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>0</v>
@@ -4723,27 +4715,27 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="J2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X2" s="7" t="n">
         <v>0.35</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
@@ -4754,10 +4746,10 @@
         <v>93</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>0</v>
@@ -4768,27 +4760,27 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="J3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X3" s="7" t="n">
         <v>0.65</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
@@ -4799,7 +4791,7 @@
         <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -4842,7 +4834,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4850,7 +4842,7 @@
         <v>93</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2</v>
@@ -4891,13 +4883,13 @@
       <c r="V5" s="4"/>
       <c r="X5" s="9"/>
       <c r="Z5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4905,7 +4897,7 @@
         <v>93</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3</v>
@@ -4946,13 +4938,13 @@
       <c r="V6" s="4"/>
       <c r="X6" s="9"/>
       <c r="Z6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4960,7 +4952,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>4</v>
@@ -5001,13 +4993,13 @@
       <c r="V7" s="4"/>
       <c r="X7" s="9"/>
       <c r="Z7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5015,7 +5007,7 @@
         <v>93</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>
@@ -5056,13 +5048,13 @@
       <c r="V8" s="4"/>
       <c r="X8" s="9"/>
       <c r="Z8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5070,7 +5062,7 @@
         <v>93</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>6</v>
@@ -5111,13 +5103,13 @@
       <c r="V9" s="4"/>
       <c r="X9" s="9"/>
       <c r="Z9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5125,7 +5117,7 @@
         <v>93</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>7</v>
@@ -5166,13 +5158,13 @@
       </c>
       <c r="X10" s="9"/>
       <c r="Z10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5180,7 +5172,7 @@
         <v>93</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>8</v>
@@ -5221,13 +5213,13 @@
       </c>
       <c r="X11" s="9"/>
       <c r="Z11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5235,7 +5227,7 @@
         <v>93</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>9</v>
@@ -5276,13 +5268,13 @@
       </c>
       <c r="X12" s="9"/>
       <c r="Z12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5290,7 +5282,7 @@
         <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>10</v>
@@ -5331,13 +5323,13 @@
       </c>
       <c r="X13" s="9"/>
       <c r="Z13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5345,7 +5337,7 @@
         <v>93</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>11</v>
@@ -5386,13 +5378,13 @@
       </c>
       <c r="X14" s="9"/>
       <c r="Z14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5400,7 +5392,7 @@
         <v>93</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>12</v>
@@ -5434,7 +5426,7 @@
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5442,7 +5434,7 @@
         <v>93</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>13</v>
@@ -5482,13 +5474,13 @@
       </c>
       <c r="X16" s="4"/>
       <c r="Z16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5496,7 +5488,7 @@
         <v>93</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>14</v>
@@ -5536,13 +5528,13 @@
       </c>
       <c r="X17" s="4"/>
       <c r="Z17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5550,7 +5542,7 @@
         <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>15</v>
@@ -5595,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5603,7 +5595,7 @@
         <v>93</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>16</v>
@@ -5636,7 +5628,7 @@
       </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5644,7 +5636,7 @@
         <v>93</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>17</v>
@@ -5681,13 +5673,13 @@
       </c>
       <c r="X20" s="9"/>
       <c r="Z20" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5695,7 +5687,7 @@
         <v>93</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>18</v>
@@ -5732,13 +5724,13 @@
       </c>
       <c r="X21" s="9"/>
       <c r="Z21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5746,7 +5738,7 @@
         <v>93</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>19</v>
@@ -5783,13 +5775,13 @@
       </c>
       <c r="X22" s="9"/>
       <c r="Z22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5797,7 +5789,7 @@
         <v>93</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>20</v>
@@ -5834,13 +5826,13 @@
       </c>
       <c r="X23" s="9"/>
       <c r="Z23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5848,7 +5840,7 @@
         <v>93</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>21</v>
@@ -5885,13 +5877,13 @@
       </c>
       <c r="X24" s="9"/>
       <c r="Z24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC24" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5914,40 +5906,40 @@
   <dimension ref="1:25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
     <col collapsed="false" hidden="false" max="1021" min="30" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
   </cols>
@@ -6052,10 +6044,10 @@
         <v>94</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>0</v>
@@ -6066,27 +6058,27 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="J2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X2" s="7" t="n">
         <v>0.35</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
@@ -6097,10 +6089,10 @@
         <v>94</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>0</v>
@@ -6111,27 +6103,27 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="J3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X3" s="7" t="n">
         <v>0.65</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
@@ -6142,7 +6134,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -6185,7 +6177,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
@@ -6195,7 +6187,7 @@
         <v>94</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2</v>
@@ -6236,13 +6228,13 @@
       <c r="V5" s="4"/>
       <c r="X5" s="9"/>
       <c r="Z5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
@@ -6252,7 +6244,7 @@
         <v>94</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3</v>
@@ -6293,13 +6285,13 @@
       <c r="V6" s="4"/>
       <c r="X6" s="9"/>
       <c r="Z6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
@@ -6309,7 +6301,7 @@
         <v>94</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>4</v>
@@ -6350,13 +6342,13 @@
       <c r="V7" s="4"/>
       <c r="X7" s="9"/>
       <c r="Z7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
@@ -6366,7 +6358,7 @@
         <v>94</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>
@@ -6407,13 +6399,13 @@
       <c r="V8" s="4"/>
       <c r="X8" s="9"/>
       <c r="Z8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
@@ -6423,7 +6415,7 @@
         <v>94</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>6</v>
@@ -6464,13 +6456,13 @@
       <c r="V9" s="4"/>
       <c r="X9" s="9"/>
       <c r="Z9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
@@ -6480,7 +6472,7 @@
         <v>94</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>7</v>
@@ -6521,13 +6513,13 @@
       </c>
       <c r="X10" s="9"/>
       <c r="Z10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
@@ -6537,7 +6529,7 @@
         <v>94</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>8</v>
@@ -6578,13 +6570,13 @@
       </c>
       <c r="X11" s="9"/>
       <c r="Z11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
@@ -6594,7 +6586,7 @@
         <v>94</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>9</v>
@@ -6635,13 +6627,13 @@
       </c>
       <c r="X12" s="9"/>
       <c r="Z12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
@@ -6651,7 +6643,7 @@
         <v>94</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>10</v>
@@ -6692,13 +6684,13 @@
       </c>
       <c r="X13" s="9"/>
       <c r="Z13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
@@ -6708,7 +6700,7 @@
         <v>94</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>11</v>
@@ -6749,13 +6741,13 @@
       </c>
       <c r="X14" s="9"/>
       <c r="Z14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
@@ -6765,7 +6757,7 @@
         <v>94</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>12</v>
@@ -6799,7 +6791,7 @@
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
@@ -6809,7 +6801,7 @@
         <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>13</v>
@@ -6849,13 +6841,13 @@
       </c>
       <c r="X16" s="4"/>
       <c r="Z16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
@@ -6865,7 +6857,7 @@
         <v>94</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>14</v>
@@ -6905,13 +6897,13 @@
       </c>
       <c r="X17" s="4"/>
       <c r="Z17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
@@ -6921,7 +6913,7 @@
         <v>94</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>15</v>
@@ -6966,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
@@ -6976,7 +6968,7 @@
         <v>94</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>16</v>
@@ -7009,7 +7001,7 @@
       </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
@@ -7019,7 +7011,7 @@
         <v>94</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>17</v>
@@ -7056,13 +7048,13 @@
       </c>
       <c r="X20" s="9"/>
       <c r="Z20" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
@@ -7072,7 +7064,7 @@
         <v>94</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>18</v>
@@ -7109,13 +7101,13 @@
       </c>
       <c r="X21" s="9"/>
       <c r="Z21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
@@ -7125,7 +7117,7 @@
         <v>94</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>19</v>
@@ -7162,13 +7154,13 @@
       </c>
       <c r="X22" s="9"/>
       <c r="Z22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
@@ -7178,7 +7170,7 @@
         <v>94</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>20</v>
@@ -7215,13 +7207,13 @@
       </c>
       <c r="X23" s="9"/>
       <c r="Z23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
@@ -7231,7 +7223,7 @@
         <v>94</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>21</v>
@@ -7268,13 +7260,13 @@
       </c>
       <c r="X24" s="9"/>
       <c r="Z24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC24" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
@@ -7306,34 +7298,34 @@
   <sheetFormatPr defaultRowHeight="18.95"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
     <col collapsed="false" hidden="false" max="34" min="30" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1020" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1021" min="1021" style="4" width="9.10526315789474"/>
@@ -7443,10 +7435,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>0</v>
@@ -7457,27 +7449,27 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="J2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X2" s="7" t="n">
         <v>0.35</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
@@ -7488,10 +7480,10 @@
         <v>95</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>0</v>
@@ -7502,27 +7494,27 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="J3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X3" s="7" t="n">
         <v>0.65</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
@@ -7533,7 +7525,7 @@
         <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -7576,7 +7568,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7584,7 +7576,7 @@
         <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2</v>
@@ -7625,13 +7617,13 @@
       <c r="V5" s="4"/>
       <c r="X5" s="9"/>
       <c r="Z5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7639,7 +7631,7 @@
         <v>95</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3</v>
@@ -7680,13 +7672,13 @@
       <c r="V6" s="4"/>
       <c r="X6" s="9"/>
       <c r="Z6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7694,7 +7686,7 @@
         <v>95</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>4</v>
@@ -7735,13 +7727,13 @@
       <c r="V7" s="4"/>
       <c r="X7" s="9"/>
       <c r="Z7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7749,7 +7741,7 @@
         <v>95</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>
@@ -7790,13 +7782,13 @@
       <c r="V8" s="4"/>
       <c r="X8" s="9"/>
       <c r="Z8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7804,7 +7796,7 @@
         <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>6</v>
@@ -7845,13 +7837,13 @@
       <c r="V9" s="4"/>
       <c r="X9" s="9"/>
       <c r="Z9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7859,7 +7851,7 @@
         <v>95</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>7</v>
@@ -7900,13 +7892,13 @@
       </c>
       <c r="X10" s="9"/>
       <c r="Z10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7914,7 +7906,7 @@
         <v>95</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>8</v>
@@ -7955,13 +7947,13 @@
       </c>
       <c r="X11" s="9"/>
       <c r="Z11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7969,7 +7961,7 @@
         <v>95</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>9</v>
@@ -8010,13 +8002,13 @@
       </c>
       <c r="X12" s="9"/>
       <c r="Z12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8024,7 +8016,7 @@
         <v>95</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>10</v>
@@ -8065,13 +8057,13 @@
       </c>
       <c r="X13" s="9"/>
       <c r="Z13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8079,7 +8071,7 @@
         <v>95</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>11</v>
@@ -8120,13 +8112,13 @@
       </c>
       <c r="X14" s="9"/>
       <c r="Z14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8134,7 +8126,7 @@
         <v>95</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>12</v>
@@ -8168,7 +8160,7 @@
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8176,7 +8168,7 @@
         <v>95</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>13</v>
@@ -8216,13 +8208,13 @@
       </c>
       <c r="X16" s="4"/>
       <c r="Z16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8230,7 +8222,7 @@
         <v>95</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>14</v>
@@ -8270,13 +8262,13 @@
       </c>
       <c r="X17" s="4"/>
       <c r="Z17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8284,7 +8276,7 @@
         <v>95</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>15</v>
@@ -8329,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8337,7 +8329,7 @@
         <v>95</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>16</v>
@@ -8370,7 +8362,7 @@
       </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8378,7 +8370,7 @@
         <v>95</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>17</v>
@@ -8415,13 +8407,13 @@
       </c>
       <c r="X20" s="9"/>
       <c r="Z20" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8429,7 +8421,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>18</v>
@@ -8466,13 +8458,13 @@
       </c>
       <c r="X21" s="9"/>
       <c r="Z21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8480,7 +8472,7 @@
         <v>95</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>19</v>
@@ -8517,13 +8509,13 @@
       </c>
       <c r="X22" s="9"/>
       <c r="Z22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8531,7 +8523,7 @@
         <v>95</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>20</v>
@@ -8568,13 +8560,13 @@
       </c>
       <c r="X23" s="9"/>
       <c r="Z23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8582,7 +8574,7 @@
         <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>21</v>
@@ -8619,13 +8611,13 @@
       </c>
       <c r="X24" s="9"/>
       <c r="Z24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC24" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8663,34 +8655,34 @@
   <sheetFormatPr defaultRowHeight="18.95"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.3805668016194"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
     <col collapsed="false" hidden="false" max="34" min="30" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1021" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
@@ -8798,10 +8790,10 @@
         <v>96</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>0</v>
@@ -8812,27 +8804,27 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="J2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X2" s="7" t="n">
         <v>0.4</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
@@ -8843,10 +8835,10 @@
         <v>96</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>0</v>
@@ -8857,27 +8849,27 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="J3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X3" s="7" t="n">
         <v>0.6</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
@@ -8888,7 +8880,7 @@
         <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -8931,7 +8923,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8939,7 +8931,7 @@
         <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2</v>
@@ -8987,14 +8979,14 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA5" s="4"/>
       <c r="AB5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9002,7 +8994,7 @@
         <v>96</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3</v>
@@ -9050,14 +9042,14 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA6" s="4"/>
       <c r="AB6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9065,7 +9057,7 @@
         <v>96</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>4</v>
@@ -9120,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9128,7 +9120,7 @@
         <v>96</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>
@@ -9171,7 +9163,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9179,7 +9171,7 @@
         <v>96</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>6</v>
@@ -9228,7 +9220,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9236,7 +9228,7 @@
         <v>96</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>7</v>
@@ -9285,7 +9277,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9293,7 +9285,7 @@
         <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>8</v>
@@ -9342,7 +9334,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9350,7 +9342,7 @@
         <v>96</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>9</v>
@@ -9399,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9407,7 +9399,7 @@
         <v>96</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>10</v>
@@ -9456,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9464,7 +9456,7 @@
         <v>96</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>11</v>
@@ -9513,7 +9505,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9521,7 +9513,7 @@
         <v>96</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>12</v>
@@ -9570,7 +9562,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9578,7 +9570,7 @@
         <v>96</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>13</v>
@@ -9627,7 +9619,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9635,7 +9627,7 @@
         <v>96</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>14</v>
@@ -9684,7 +9676,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9692,7 +9684,7 @@
         <v>96</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>15</v>
@@ -9741,7 +9733,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9749,7 +9741,7 @@
         <v>96</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>16</v>
@@ -9798,7 +9790,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9806,7 +9798,7 @@
         <v>96</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>17</v>
@@ -9855,7 +9847,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -9883,34 +9875,34 @@
   <sheetFormatPr defaultRowHeight="18.95"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.3805668016194"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
     <col collapsed="false" hidden="false" max="34" min="30" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1021" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
@@ -10018,10 +10010,10 @@
         <v>114</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>0</v>
@@ -10032,27 +10024,27 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="J2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X2" s="7" t="n">
         <v>0.4</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
@@ -10063,10 +10055,10 @@
         <v>114</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>0</v>
@@ -10077,27 +10069,27 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="J3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X3" s="7" t="n">
         <v>0.6</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
@@ -10108,7 +10100,7 @@
         <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -10151,7 +10143,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10159,7 +10151,7 @@
         <v>114</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2</v>
@@ -10207,14 +10199,14 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA5" s="4"/>
       <c r="AB5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10222,7 +10214,7 @@
         <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3</v>
@@ -10270,14 +10262,14 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA6" s="4"/>
       <c r="AB6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10285,7 +10277,7 @@
         <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>4</v>
@@ -10340,7 +10332,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10348,7 +10340,7 @@
         <v>114</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>
@@ -10391,7 +10383,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10399,7 +10391,7 @@
         <v>114</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>6</v>
@@ -10448,7 +10440,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10456,7 +10448,7 @@
         <v>114</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>7</v>
@@ -10505,7 +10497,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10513,7 +10505,7 @@
         <v>114</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>8</v>
@@ -10562,7 +10554,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10570,7 +10562,7 @@
         <v>114</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>9</v>
@@ -10619,7 +10611,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10627,7 +10619,7 @@
         <v>114</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>10</v>
@@ -10676,7 +10668,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10684,7 +10676,7 @@
         <v>114</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>11</v>
@@ -10733,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10741,7 +10733,7 @@
         <v>114</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>12</v>
@@ -10790,7 +10782,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10798,7 +10790,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>13</v>
@@ -10847,7 +10839,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10855,7 +10847,7 @@
         <v>114</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>14</v>
@@ -10904,7 +10896,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10912,7 +10904,7 @@
         <v>114</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>15</v>
@@ -10961,7 +10953,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10969,7 +10961,7 @@
         <v>114</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>16</v>
@@ -11018,7 +11010,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11026,7 +11018,7 @@
         <v>114</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>17</v>
@@ -11075,7 +11067,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -11103,34 +11095,34 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.3805668016194"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
     <col collapsed="false" hidden="false" max="1021" min="30" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
   </cols>
@@ -11237,10 +11229,10 @@
         <v>115</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>0</v>
@@ -11251,27 +11243,27 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="J2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X2" s="7" t="n">
         <v>0.4</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
@@ -11282,10 +11274,10 @@
         <v>115</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>0</v>
@@ -11296,27 +11288,27 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="J3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X3" s="7" t="n">
         <v>0.6</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
@@ -11327,7 +11319,7 @@
         <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -11361,7 +11353,7 @@
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11369,7 +11361,7 @@
         <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2</v>
@@ -11409,13 +11401,13 @@
       </c>
       <c r="X5" s="9"/>
       <c r="Z5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11423,7 +11415,7 @@
         <v>115</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3</v>
@@ -11463,13 +11455,13 @@
       </c>
       <c r="X6" s="9"/>
       <c r="Z6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11477,7 +11469,7 @@
         <v>115</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>4</v>
@@ -11522,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11530,7 +11522,7 @@
         <v>115</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>
@@ -11563,7 +11555,7 @@
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11571,7 +11563,7 @@
         <v>115</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>6</v>
@@ -11612,7 +11604,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11620,7 +11612,7 @@
         <v>115</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>7</v>
@@ -11661,7 +11653,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11669,7 +11661,7 @@
         <v>115</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>8</v>
@@ -11710,7 +11702,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11718,7 +11710,7 @@
         <v>115</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>9</v>
@@ -11759,7 +11751,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11767,7 +11759,7 @@
         <v>115</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>10</v>
@@ -11808,7 +11800,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11816,7 +11808,7 @@
         <v>115</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>11</v>
@@ -11857,7 +11849,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11865,7 +11857,7 @@
         <v>115</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>12</v>
@@ -11906,7 +11898,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11914,7 +11906,7 @@
         <v>115</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>13</v>
@@ -11955,7 +11947,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11963,7 +11955,7 @@
         <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>14</v>
@@ -12004,7 +11996,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12012,7 +12004,7 @@
         <v>115</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>15</v>
@@ -12053,7 +12045,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12061,7 +12053,7 @@
         <v>115</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>16</v>
@@ -12102,7 +12094,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12110,7 +12102,7 @@
         <v>115</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>17</v>
@@ -12151,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12159,7 +12151,7 @@
         <v>115</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>18</v>
@@ -12192,7 +12184,7 @@
       </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12200,7 +12192,7 @@
         <v>115</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>19</v>
@@ -12236,13 +12228,13 @@
         <v>83</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12250,7 +12242,7 @@
         <v>115</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>20</v>
@@ -12286,13 +12278,13 @@
         <v>83</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12300,7 +12292,7 @@
         <v>115</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>21</v>
@@ -12336,13 +12328,13 @@
         <v>83</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12350,7 +12342,7 @@
         <v>115</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>22</v>
@@ -12386,13 +12378,13 @@
         <v>83</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12400,7 +12392,7 @@
         <v>115</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>23</v>
@@ -12436,13 +12428,13 @@
         <v>83</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -12469,35 +12461,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.3805668016194"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
     <col collapsed="false" hidden="false" max="34" min="30" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1021" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
@@ -12605,10 +12597,10 @@
         <v>117</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>0</v>
@@ -12619,27 +12611,27 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="J2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X2" s="7" t="n">
         <v>0.4</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
@@ -12650,10 +12642,10 @@
         <v>117</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>0</v>
@@ -12664,27 +12656,27 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="J3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X3" s="7" t="n">
         <v>0.6</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
@@ -12695,7 +12687,7 @@
         <v>117</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -12738,7 +12730,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12746,7 +12738,7 @@
         <v>117</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2</v>
@@ -12794,14 +12786,14 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA5" s="4"/>
       <c r="AB5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12809,7 +12801,7 @@
         <v>117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3</v>
@@ -12857,14 +12849,14 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA6" s="4"/>
       <c r="AB6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12872,7 +12864,7 @@
         <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>4</v>
@@ -12927,7 +12919,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12935,7 +12927,7 @@
         <v>117</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>
@@ -12978,7 +12970,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12986,7 +12978,7 @@
         <v>117</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>6</v>
@@ -13035,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13043,7 +13035,7 @@
         <v>117</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>7</v>
@@ -13092,7 +13084,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13100,7 +13092,7 @@
         <v>117</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>8</v>
@@ -13149,7 +13141,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13157,7 +13149,7 @@
         <v>117</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>9</v>
@@ -13206,7 +13198,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13214,7 +13206,7 @@
         <v>117</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>10</v>
@@ -13263,7 +13255,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13271,7 +13263,7 @@
         <v>117</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>11</v>
@@ -13320,7 +13312,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13328,7 +13320,7 @@
         <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>12</v>
@@ -13377,7 +13369,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13385,7 +13377,7 @@
         <v>117</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>13</v>
@@ -13434,7 +13426,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13442,7 +13434,7 @@
         <v>117</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>14</v>
@@ -13491,7 +13483,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13499,7 +13491,7 @@
         <v>117</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>15</v>
@@ -13548,7 +13540,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13556,7 +13548,7 @@
         <v>117</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>16</v>
@@ -13605,7 +13597,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13613,7 +13605,7 @@
         <v>117</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>17</v>
@@ -13662,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2018/Contract Execution 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/Contract Execution 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="visible" r:id="rId2"/>
@@ -252,7 +252,7 @@
     <t xml:space="preserve">13,14,15</t>
   </si>
   <si>
-    <t xml:space="preserve">CCH Cooler </t>
+    <t xml:space="preserve">CCH Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">CCH Cooler Doors</t>
@@ -620,14 +620,14 @@
   </sheetPr>
   <dimension ref="1:1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
@@ -637,18 +637,18 @@
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="7.39271255060729"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="5.24696356275304"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="11.1417004048583"/>
@@ -768,41 +768,41 @@
   </sheetPr>
   <dimension ref="1:20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="34" min="30" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1021" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
@@ -1988,41 +1988,41 @@
   </sheetPr>
   <dimension ref="1:20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="1021" min="30" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
   </cols>
@@ -3202,41 +3202,41 @@
   </sheetPr>
   <dimension ref="1:24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="34" min="30" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1021" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
@@ -4556,43 +4556,43 @@
   </sheetPr>
   <dimension ref="1:25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="33" min="30" style="4" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="1.92712550607287"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="1.82186234817814"/>
     <col collapsed="false" hidden="false" max="1021" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
   </cols>
@@ -5905,41 +5905,41 @@
   </sheetPr>
   <dimension ref="1:25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="1021" min="30" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
   </cols>
@@ -7291,41 +7291,41 @@
   </sheetPr>
   <dimension ref="1:25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="34" min="30" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1020" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1021" min="1021" style="4" width="9.10526315789474"/>
@@ -8648,41 +8648,41 @@
   </sheetPr>
   <dimension ref="1:20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="34" min="30" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1021" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
@@ -9868,41 +9868,41 @@
   </sheetPr>
   <dimension ref="1:20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="34" min="30" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1021" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
@@ -11088,41 +11088,41 @@
   </sheetPr>
   <dimension ref="1:26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L38" activeCellId="0" sqref="L38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="1021" min="30" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
   </cols>
@@ -12455,41 +12455,41 @@
   </sheetPr>
   <dimension ref="1:20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.4574898785425"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="34" min="30" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1021" min="35" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.10526315789474"/>
